--- a/biology/Botanique/W.W.Sm/W.W.Sm..xlsx
+++ b/biology/Botanique/W.W.Sm/W.W.Sm..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">William Wright Smith est un botaniste britannique, né le 2 février 1875[1] à Parkend près de Lochmaben en Écosse et mort le 15 décembre 1956 à Édimbourg.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William Wright Smith est un botaniste britannique, né le 2 février 1875 à Parkend près de Lochmaben en Écosse et mort le 15 décembre 1956 à Édimbourg.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de James T. Smith, fermier dans le Dumfriesshire et le jeune William acquiert très tôt l’amour de la nature et de sa terre natale. Il fait ses études jusqu’à ses seize ans à l’Académie de Dumfries. Il a alors l’intention de devenir maître d’école. Il part alors étudier à l’université d’Édimbourg et tente d’obtenir le diplôme pour les maîtres d’école du Moray House Training School. Après l’obtention de son diplôme, il officie durant dix ans comme maître d’école. Mais son intérêt pour les sciences naturelles le conduit à devenir l’assistant de Sir Isaac Bayley Balfour (1853-1922) et lecteur au sein du petit département de botanique de l’université d’Édimbourg. Ses tâches sont variées et il s’occupe particulièrement de mycologie : en plus de ses fonctions de lecteur, il organise des sorties mycologiques sur le terrain pour former les étudiants à la reconnaissance des champignons.
 En 1907, il a la possibilité de quitter l’Écosse pour partir en Inde où, sous l’autorité du gouverneur du Bengale, il devient conservateur de l’herbier du jardin botanique de Calcutta. Après quatre ans de service, il est nommé directeur du jardin botanique ainsi que du service de recherche botanique de l’Inde, il reçoit également la tâche de s’occuper du jardin botanique Lloyd de Darjeeling. Il y développe une solide connaissance de la flore de l’Inde et de la Birmanie ainsi que d’autres régions tropicales grâce aux espèces en culture dans le jardin.
